--- a/outputs/context_out_sheet.xlsx
+++ b/outputs/context_out_sheet.xlsx
@@ -399,15 +399,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>angelina_jolie</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>bill_clinton</t>
-        </is>
+      <c r="A2" t="n">
+        <v>0.9720134735107422</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9605549573898315</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -420,15 +416,11 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>angelina_jolie</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>bill_clinton</t>
-        </is>
+      <c r="A3" t="n">
+        <v>0.9789415597915649</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9764283895492554</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -441,15 +433,11 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>angelina_jolie</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>bill_clinton</t>
-        </is>
+      <c r="A4" t="n">
+        <v>0.9860152006149292</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9917442798614502</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -462,15 +450,11 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>angelina_jolie</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>bill_clinton</t>
-        </is>
+      <c r="A5" t="n">
+        <v>0.9756662845611572</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9684481620788574</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -483,15 +467,11 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>angelina_jolie</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>bill_clinton</t>
-        </is>
+      <c r="A6" t="n">
+        <v>0.9839267134666443</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9920134544372559</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -504,15 +484,11 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>angelina_jolie</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>bill_clinton</t>
-        </is>
+      <c r="A7" t="n">
+        <v>0.9980687499046326</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9975479245185852</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -525,15 +501,11 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>angelina_jolie</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>bill_clinton</t>
-        </is>
+      <c r="A8" t="n">
+        <v>0.9934963583946228</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9962543845176697</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -546,15 +518,11 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>angelina_jolie</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>bill_clinton</t>
-        </is>
+      <c r="A9" t="n">
+        <v>0.9914373159408569</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.9932402968406677</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -567,15 +535,11 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>angelina_jolie</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>bill_clinton</t>
-        </is>
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -588,15 +552,11 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>angelina_jolie</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>bill_clinton</t>
-        </is>
+      <c r="A11" t="n">
+        <v>0.9910380840301514</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.9846752882003784</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -609,15 +569,11 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>angelina_jolie</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>bill_clinton</t>
-        </is>
+      <c r="A12" t="n">
+        <v>0.9950825572013855</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9908121228218079</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -630,15 +586,11 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>angelina_jolie</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>bill_clinton</t>
-        </is>
+      <c r="A13" t="n">
+        <v>0.993281364440918</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9966467022895813</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -651,15 +603,11 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>angelina_jolie</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>bill_clinton</t>
-        </is>
+      <c r="A14" t="n">
+        <v>0.9990392923355103</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.996768057346344</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -672,15 +620,11 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>angelina_jolie</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>bill_clinton</t>
-        </is>
+      <c r="A15" t="n">
+        <v>0.9538912773132324</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9869135618209839</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -693,15 +637,11 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>angelina_jolie</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>bill_clinton</t>
-        </is>
+      <c r="A16" t="n">
+        <v>0.9770773649215698</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.979532778263092</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -714,15 +654,11 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>angelina_jolie</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>bill_clinton</t>
-        </is>
+      <c r="A17" t="n">
+        <v>0.9794642925262451</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9871851205825806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -735,15 +671,11 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>angelina_jolie</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>bill_clinton</t>
-        </is>
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -756,15 +688,11 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>angelina_jolie</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>bill_clinton</t>
-        </is>
+      <c r="A19" t="n">
+        <v>0.9831644296646118</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9818464517593384</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -777,15 +705,11 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>angelina_jolie</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>bill_clinton</t>
-        </is>
+      <c r="A20" t="n">
+        <v>0.9796015024185181</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9955092668533325</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -798,15 +722,11 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>angelina_jolie</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>bill_clinton</t>
-        </is>
+      <c r="A21" t="n">
+        <v>0.9673460721969604</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9818342328071594</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>

--- a/outputs/context_out_sheet.xlsx
+++ b/outputs/context_out_sheet.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -18,7 +18,7 @@
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
@@ -390,14 +390,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:E21"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>regVScontext</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>regVSout</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0.9720134735107422</v>
@@ -405,15 +417,6 @@
       <c r="B2" t="n">
         <v>0.9605549573898315</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -422,15 +425,6 @@
       <c r="B3" t="n">
         <v>0.9764283895492554</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -439,15 +433,6 @@
       <c r="B4" t="n">
         <v>0.9917442798614502</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -456,15 +441,6 @@
       <c r="B5" t="n">
         <v>0.9684481620788574</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -473,15 +449,6 @@
       <c r="B6" t="n">
         <v>0.9920134544372559</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -490,15 +457,6 @@
       <c r="B7" t="n">
         <v>0.9975479245185852</v>
       </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -507,15 +465,6 @@
       <c r="B8" t="n">
         <v>0.9962543845176697</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -524,15 +473,6 @@
       <c r="B9" t="n">
         <v>0.9932402968406677</v>
       </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -541,15 +481,6 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -558,15 +489,6 @@
       <c r="B11" t="n">
         <v>0.9846752882003784</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -575,15 +497,6 @@
       <c r="B12" t="n">
         <v>0.9908121228218079</v>
       </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -592,15 +505,6 @@
       <c r="B13" t="n">
         <v>0.9966467022895813</v>
       </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -609,15 +513,6 @@
       <c r="B14" t="n">
         <v>0.996768057346344</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -626,15 +521,6 @@
       <c r="B15" t="n">
         <v>0.9869135618209839</v>
       </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -643,15 +529,6 @@
       <c r="B16" t="n">
         <v>0.979532778263092</v>
       </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -660,15 +537,6 @@
       <c r="B17" t="n">
         <v>0.9871851205825806</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -677,15 +545,6 @@
       <c r="B18" t="n">
         <v>1</v>
       </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -694,15 +553,6 @@
       <c r="B19" t="n">
         <v>0.9818464517593384</v>
       </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -711,15 +561,6 @@
       <c r="B20" t="n">
         <v>0.9955092668533325</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -727,15 +568,6 @@
       </c>
       <c r="B21" t="n">
         <v>0.9818342328071594</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
